--- a/biology/Botanique/Tenon/Tenon.xlsx
+++ b/biology/Botanique/Tenon/Tenon.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le tenon est la partie mâle d'une pièce de construction destinée à être enfoncée dans la partie femelle d'une autre pièce et qui tient les deux par emboîtement. La partie femelle est appelée la mortaise.
 Un tel assemblage peut être chevillé à l'aide d'une cheville de bois. Il constitue un embrèvement.
@@ -512,14 +524,16 @@
           <t>Terminologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Chaque partie du tenon porte un nom distinct :
-l'arasement[1] : il s'agit de la partie qui délimite l'épaisseur du tenon. Il assure également la solidité de l'assemblage[2] ;
-la joue[1] ;
-l'about[1] ;
-le chant[1] ;
-l'épaulement[1].</t>
+l'arasement : il s'agit de la partie qui délimite l'épaisseur du tenon. Il assure également la solidité de l'assemblage ;
+la joue ;
+l'about ;
+le chant ;
+l'épaulement.</t>
         </is>
       </c>
     </row>
